--- a/biology/Botanique/Paypayrola_guianensis/Paypayrola_guianensis.xlsx
+++ b/biology/Botanique/Paypayrola_guianensis/Paypayrola_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paypayrola guianensis est une espèce d'arbres de la famille des Violaceae.
-Paypayrola guianensis est connu en Guyane sous le nom d’Encens rouge[3], Bois poule (Créole), Wila poloelaa (Wayãpi) ou Yauknabui (Palikur)[4], et au Suriname Físibía (Saramaka)[5], Taja oedoe[6], Tajahoedoe, Visibia (Nenge tongo), Akaradan (Arawak)[7].
+Paypayrola guianensis est connu en Guyane sous le nom d’Encens rouge, Bois poule (Créole), Wila poloelaa (Wayãpi) ou Yauknabui (Palikur), et au Suriname Físibía (Saramaka), Taja oedoe, Tajahoedoe, Visibia (Nenge tongo), Akaradan (Arawak).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paypayrola guianensis est un arbusteou petit arbre, glabre, atteignant 3–7 m de haut. Les tiges sont pileuses à glabrescentes.
 Les feuilles mesurant (8,5)13–20(35) × (2,5)7–10(14) cm, sont glabres sur les 2 faces, parfois bicolores, de forme ovale-lancéolée à obovale-oblongue, à marge entières ou un peu quelques dentée, à sommet arrondi ou brièvement acuminé, et à base obtuse, courtement atténuée, cunéiforme, aiguë ou arrondie.
@@ -529,7 +543,7 @@
 L'ovaire, mesurant 3 × 1 mm, est glabre, avec le style obovoïde, long de 2,5-3 mm, émergeant du tube des filets.
 Il contient les ovules en 2 rangs sur les placentas.
 Le fruit est une capsule fusiforme au péricarpe vert, mesurant 2,3-4 x 1-1,5 cm.
-Chaque valve contient 4 graines sphériques, de couleur brun clair, mesurant 8-10(11) x 4-5 mm[8],[9],[10],[11].
+Chaque valve contient 4 graines sphériques, de couleur brun clair, mesurant 8-10(11) x 4-5 mm.
 </t>
         </is>
       </c>
@@ -558,9 +572,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paypayrola guianensis est présent en Colombie, au Venezuela (Amazonas : Río Cunucunuma), au Guyana, au Suriname, en Guyane, et au Brésil[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paypayrola guianensis est présent en Colombie, au Venezuela (Amazonas : Río Cunucunuma), au Guyana, au Suriname, en Guyane, et au Brésil.
 </t>
         </is>
       </c>
@@ -589,12 +605,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paypayrola guianensis se trouve au Venezuela dans les forêts ripicoles autour de 200–300 m d'altitude[9].
-Ce petit arbre, souvent cauliflore, est présent dans le sous-bois des forêts anciennes[4] de terre ferme (non inondée) en Guyane, où il fleurit en Juin et fructifie en Juillet[10].
-Il pousse dans les recrus forestiers en Guyane[12], et dans la végétation saisonnièrement inondée au Suriname[5].
-Paypayrola guianensis est un arbuste ou petit arbre qui fleurit en Octobre-Décembre et fructifie en Juillet. Sa dissémination est de type autochore, ses graines sont de taille moyenne 0,1 &lt; Lxl &lt; 0,99 cm3, et son délai de germination est court (inférieur à 1 mois)[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paypayrola guianensis se trouve au Venezuela dans les forêts ripicoles autour de 200–300 m d'altitude.
+Ce petit arbre, souvent cauliflore, est présent dans le sous-bois des forêts anciennes de terre ferme (non inondée) en Guyane, où il fleurit en Juin et fructifie en Juillet.
+Il pousse dans les recrus forestiers en Guyane, et dans la végétation saisonnièrement inondée au Suriname.
+Paypayrola guianensis est un arbuste ou petit arbre qui fleurit en Octobre-Décembre et fructifie en Juillet. Sa dissémination est de type autochore, ses graines sont de taille moyenne 0,1 &lt; Lxl &lt; 0,99 cm3, et son délai de germination est court (inférieur à 1 mois).
 </t>
         </is>
       </c>
@@ -623,15 +641,17 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Paypayrola guianensis est de couleur rosée avec fine moucheture. Il est peu abondant et peu employé, mais est pourtant facile à travailler, et peut servir pour la menuiserie intérieure et la charpenterie[3],[14].
-La structure de ce bois a été décrite[15].
-Le bois de Paypayrola guianensis (densité : 0,65) présente un pouvoir calorifique supérieur de 4,730 cal/g ou 3,075 cal/cm3[6].
-Paypayrola guianensis produit un bois peu denses mais durable (perte de masse à 6 mois P6 % = 9,0 ; P6 relative = 25% ; densité 12% = 0,69 ; infradensité = 0,55)[16].
-Paypayrola guianensis est employé à des fins médicinales et technologiques chez les Saramaka au Suriname[5].
-À Camopi, la décoction d'écorce de Paypayrola guianensis est considérée fébrifuge par les Wayãpi[4].
-La tisane de fleurs d'une espèce proche, Paypayrola grandiflora Tulasne, est employée pour lutter contre l'anémie en Amazonie colombienne[17].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Paypayrola guianensis est de couleur rosée avec fine moucheture. Il est peu abondant et peu employé, mais est pourtant facile à travailler, et peut servir pour la menuiserie intérieure et la charpenterie,.
+La structure de ce bois a été décrite.
+Le bois de Paypayrola guianensis (densité : 0,65) présente un pouvoir calorifique supérieur de 4,730 cal/g ou 3,075 cal/cm3.
+Paypayrola guianensis produit un bois peu denses mais durable (perte de masse à 6 mois P6 % = 9,0 ; P6 relative = 25% ; densité 12% = 0,69 ; infradensité = 0,55).
+Paypayrola guianensis est employé à des fins médicinales et technologiques chez les Saramaka au Suriname.
+À Camopi, la décoction d'écorce de Paypayrola guianensis est considérée fébrifuge par les Wayãpi.
+La tisane de fleurs d'une espèce proche, Paypayrola grandiflora Tulasne, est employée pour lutter contre l'anémie en Amazonie colombienne.
 </t>
         </is>
       </c>
@@ -660,9 +680,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[18] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « PAYPAYROLA (Guianenſis). (Tabula 99.)
 Frutex, caulem duodecim vel quindecim - pedalem, ramoſum, rectum, è radice emittens : quandoque, duos, tres &amp; ampliùs protrudit. Folia alterna, ampla, ovaca, acuta, glabra, integerrima, petiolata, ſtipulata ; stipulis duabus, brevibus, acutis, deciduis.
 Flores ſpicati, axillares &amp; terminales. Corolla flava. Glandule tres, ad baſim ſinguli floris.
